--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS90101_アクセスレベル使用禁止区分変更画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS90101_アクセスレベル使用禁止区分変更画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Projects\03.JTEKT\00.プロジェクト別\09.2024年度DRASAPサーバ更新2024\30.設計ドキュメント\T_テスト／移行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C5C6CB-2861-4FC9-8E5A-B05A3F465DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEBAC94-80B5-432B-9A8C-2958F3DFC5C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アクセスレベル使用禁止区分変更画面" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -978,6 +978,29 @@
   <si>
     <t>No.</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG⇒OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1185,7 +1208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1253,6 +1276,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1295,7 +1321,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1586,43 +1615,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="31.2109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.0703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" style="1" customWidth="1"/>
-    <col min="8" max="10" width="46.85546875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="46.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="84.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.2109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="45.78515625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="6.125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="31.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.75" style="1" customWidth="1"/>
+    <col min="8" max="10" width="46.875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="46.875" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="84.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="45.75" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.6" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="29" t="s">
+      <c r="N1" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="2">
+        <f>COUNTIF(N$7:N$1000,N1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="17" t="s">
         <v>76</v>
       </c>
@@ -1632,44 +1668,72 @@
       <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="31" t="s">
+      <c r="N2" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="2">
+        <f t="shared" ref="O2:O4" si="0">COUNTIF(N$7:N$1000,N2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="23">
         <v>45553</v>
       </c>
       <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="26" t="s">
+      <c r="N3" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="33" t="s">
+      <c r="N4" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.65">
+      <c r="N5" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="39" t="str">
+        <f>"未実施："&amp;COUNTA(M$7:M$1000)-SUM(O1:O4)&amp;"／実施済："&amp;SUM(O1:O4)</f>
+        <v>未実施：32／実施済：0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>80</v>
       </c>
@@ -1679,14 +1743,14 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
@@ -1706,7 +1770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -1739,7 +1803,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -1764,7 +1828,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -1789,7 +1853,7 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -1814,7 +1878,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -1841,7 +1905,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -1868,7 +1932,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -1893,7 +1957,7 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -1918,7 +1982,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -1943,7 +2007,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -1972,7 +2036,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -1997,7 +2061,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>12</v>
       </c>
@@ -2024,7 +2088,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>13</v>
       </c>
@@ -2053,7 +2117,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>14</v>
       </c>
@@ -2078,7 +2142,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>15</v>
       </c>
@@ -2105,7 +2169,7 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>16</v>
       </c>
@@ -2134,7 +2198,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>17</v>
       </c>
@@ -2159,7 +2223,7 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>18</v>
       </c>
@@ -2186,7 +2250,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>19</v>
       </c>
@@ -2211,7 +2275,7 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>20</v>
       </c>
@@ -2236,7 +2300,7 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="15"/>
     </row>
-    <row r="27" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>21</v>
       </c>
@@ -2273,7 +2337,7 @@
       <c r="P27" s="13"/>
       <c r="Q27" s="15"/>
     </row>
-    <row r="28" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>22</v>
       </c>
@@ -2300,7 +2364,7 @@
       <c r="P28" s="13"/>
       <c r="Q28" s="15"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>23</v>
       </c>
@@ -2325,7 +2389,7 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>24</v>
       </c>
@@ -2350,7 +2414,7 @@
       <c r="P30" s="13"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>25</v>
       </c>
@@ -2377,7 +2441,7 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>26</v>
       </c>
@@ -2408,7 +2472,7 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>27</v>
       </c>
@@ -2433,7 +2497,7 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="15"/>
     </row>
-    <row r="34" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>28</v>
       </c>
@@ -2458,7 +2522,7 @@
       <c r="P34" s="13"/>
       <c r="Q34" s="15"/>
     </row>
-    <row r="35" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>29</v>
       </c>
@@ -2493,7 +2557,7 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="15"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>30</v>
       </c>
@@ -2518,7 +2582,7 @@
       <c r="P36" s="13"/>
       <c r="Q36" s="15"/>
     </row>
-    <row r="37" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>31</v>
       </c>
@@ -2545,7 +2609,7 @@
       <c r="P37" s="13"/>
       <c r="Q37" s="15"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>32</v>
       </c>
@@ -2588,6 +2652,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B932A2821493BB4AB71A0C79347FD678" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="528594b33024f52b27c0b5dcdc9dfa0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xmlns:ns3="e8618445-b921-4c48-afdf-14e883213c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25e4712d85e376121aa3366c94b400a9" ns2:_="" ns3:_="">
     <xsd:import namespace="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
@@ -2810,34 +2894,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79C096E5-A1DB-489C-9CAC-C8FB6339C4F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF5EFF74-CBA8-4982-B5EC-B9B9C8407E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3209FF43-2DD5-4E22-910A-D8153882A9DC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3209FF43-2DD5-4E22-910A-D8153882A9DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF5EFF74-CBA8-4982-B5EC-B9B9C8407E86}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79C096E5-A1DB-489C-9CAC-C8FB6339C4F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS90101_アクセスレベル使用禁止区分変更画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS90101_アクセスレベル使用禁止区分変更画面.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEBAC94-80B5-432B-9A8C-2958F3DFC5C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898A61C1-3690-452B-AAA2-110A6508ED2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="368" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アクセスレベル使用禁止区分変更画面" sheetId="2" r:id="rId1"/>
+    <sheet name="No.1~9" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1002,12 +1014,20 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>OLD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NEW</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1050,6 +1070,23 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1202,13 +1239,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1279,6 +1317,12 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1321,15 +1365,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1348,6 +1391,2199 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783A20F0-988E-010D-7D16-410707CA1E3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682625" y="714375"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>542303</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B463F7A-2710-E11F-82B9-50738F47CF60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19796125" y="714375"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>396876</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>539751</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E2FE96-6ABD-4813-876B-65C8B34EE257}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25654001" y="10302875"/>
+          <a:ext cx="825500" cy="317499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F970167-69C2-5BC5-9EF1-5094B73537BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19796125" y="1222376"/>
+          <a:ext cx="12350750" cy="2111374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>660399</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Speech Bubble: Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828DC008-65FA-8D00-B31C-F831D6E2B6DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20456524" y="3724274"/>
+          <a:ext cx="5578475" cy="5340351"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 71171"/>
+            <a:gd name="adj2" fmla="val -864"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>No.1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タイトルが下記の通り表示されること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Drawing Search and Print System [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アクセスレベル変更</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「アクセスレベル・使用禁止区分の変更」と表示されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>セッション情報から取得した以下のログインユーザー情報が表示される</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　職番：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID] </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=USER_MASTER.USER_ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　名前：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>氏名（和文）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=USER_MASTER.USER_NAME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　部署名：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>部署名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=USER_MASTER.DEPARTMENT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>変更後のアクセスレベル、使用禁止区分を入力して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>変更したくない品番はチェックを外して下さい。「次へ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」で確認画面に遷移します。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・変更対象となる図番が選択されていません</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.6</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ボタンがインアクティブ状態</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.7</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>図番　　　アクセスレベル　　使用禁止区分</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　　　　現在　変更後　　   現在　変更後</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.8</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>何も表示されない</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.9</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ボタンがインアクティブ状態</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>174624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4317E3D-8430-BA01-2EF3-B2EF550A8B46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="48514001" y="12715875"/>
+          <a:ext cx="825500" cy="317499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396876</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>539751</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C79A58C-C95F-44B8-8968-F8A9400A2D4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6540501" y="10302875"/>
+          <a:ext cx="825500" cy="317499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647F12BD-A002-4D26-8897-0F065711BCCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682625" y="1222376"/>
+          <a:ext cx="12350750" cy="2111374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>660399</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Speech Bubble: Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{384CB1DF-4014-4387-BCBE-C58C145E32B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343024" y="3724274"/>
+          <a:ext cx="5578475" cy="5340351"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 71171"/>
+            <a:gd name="adj2" fmla="val -864"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>No.1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タイトルが下記の通り表示されること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Drawing Search and Print System [</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アクセスレベル変更</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「アクセスレベル・使用禁止区分の変更」と表示されること</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>セッション情報から取得した以下のログインユーザー情報が表示される</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　職番：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID] </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=USER_MASTER.USER_ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　名前：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>氏名（和文）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=USER_MASTER.USER_NAME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　部署名：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>部署名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>=USER_MASTER.DEPARTMENT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>変更後のアクセスレベル、使用禁止区分を入力して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>変更したくない品番はチェックを外して下さい。「次へ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」で確認画面に遷移します。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・変更対象となる図番が選択されていません</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.6</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ボタンがインアクティブ状態</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.7</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>図番　　　アクセスレベル　　使用禁止区分</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　　　　現在　変更後　　   現在　変更後</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.8</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>何も表示されない</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.9</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ボタンがインアクティブ状態</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>174624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6FD2D98-41D4-4852-A818-25EBF1873270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29400501" y="12715875"/>
+          <a:ext cx="825500" cy="317499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1613,10 +3849,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1638,15 +3875,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="18"/>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="24" t="s">
         <v>81</v>
       </c>
       <c r="O1" s="2">
@@ -1655,10 +3892,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="17" t="s">
         <v>76</v>
       </c>
@@ -1668,7 +3905,7 @@
       <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="24" t="s">
         <v>82</v>
       </c>
       <c r="O2" s="2">
@@ -1677,10 +3914,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="5" t="s">
         <v>79</v>
       </c>
@@ -1691,7 +3928,7 @@
         <v>45553</v>
       </c>
       <c r="F3" s="19"/>
-      <c r="N3" s="38" t="s">
+      <c r="N3" s="24" t="s">
         <v>83</v>
       </c>
       <c r="O3" s="2">
@@ -1700,15 +3937,15 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="18"/>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="24" t="s">
         <v>84</v>
       </c>
       <c r="O4" s="2">
@@ -1717,18 +3954,18 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="20"/>
-      <c r="N5" s="38" t="s">
+      <c r="N5" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="O5" s="39" t="str">
+      <c r="O5" s="25" t="str">
         <f>"未実施："&amp;COUNTA(M$7:M$1000)-SUM(O1:O4)&amp;"／実施済："&amp;SUM(O1:O4)</f>
         <v>未実施：32／実施済：0</v>
       </c>
@@ -1743,14 +3980,14 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
@@ -1771,7 +4008,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="9">
+      <c r="A7" s="41">
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -1803,8 +4040,8 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8" s="9">
+    <row r="8" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="41">
         <v>2</v>
       </c>
       <c r="B8" s="10"/>
@@ -1829,7 +4066,7 @@
       <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:17" ht="63" x14ac:dyDescent="0.4">
-      <c r="A9" s="9">
+      <c r="A9" s="41">
         <v>3</v>
       </c>
       <c r="B9" s="10"/>
@@ -1854,7 +4091,7 @@
       <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="9">
+      <c r="A10" s="41">
         <v>4</v>
       </c>
       <c r="B10" s="10"/>
@@ -1879,7 +4116,7 @@
       <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="9">
+      <c r="A11" s="41">
         <v>5</v>
       </c>
       <c r="B11" s="10"/>
@@ -1905,8 +4142,8 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" s="9">
+    <row r="12" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="41">
         <v>6</v>
       </c>
       <c r="B12" s="10"/>
@@ -1933,7 +4170,7 @@
       <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="9">
+      <c r="A13" s="41">
         <v>7</v>
       </c>
       <c r="B13" s="10"/>
@@ -1957,8 +4194,8 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" s="9">
+    <row r="14" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A14" s="41">
         <v>8</v>
       </c>
       <c r="B14" s="10"/>
@@ -1982,8 +4219,8 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="9">
+    <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A15" s="41">
         <v>9</v>
       </c>
       <c r="B15" s="10"/>
@@ -2646,8 +4883,38 @@
     <mergeCell ref="A5:E5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A7" location="'No.1~9'!A1" display="'No.1~9'!A1" xr:uid="{64B695E5-632C-426B-B0D1-0BA2E9EB3097}"/>
+    <hyperlink ref="A8:A15" location="'No.1~9'!A1" display="'No.1~9'!A1" xr:uid="{7BA26A15-9D98-499E-B97E-4C768C9551DC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF03D452-5E5B-4623-B3D0-4CB97ECF671E}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B2:AD2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B2" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2663,15 +4930,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B932A2821493BB4AB71A0C79347FD678" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="528594b33024f52b27c0b5dcdc9dfa0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xmlns:ns3="e8618445-b921-4c48-afdf-14e883213c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25e4712d85e376121aa3366c94b400a9" ns2:_="" ns3:_="">
     <xsd:import namespace="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
@@ -2894,6 +5152,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF5EFF74-CBA8-4982-B5EC-B9B9C8407E86}">
   <ds:schemaRefs>
@@ -2906,14 +5173,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3209FF43-2DD5-4E22-910A-D8153882A9DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79C096E5-A1DB-489C-9CAC-C8FB6339C4F5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2930,4 +5189,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3209FF43-2DD5-4E22-910A-D8153882A9DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS90101_アクセスレベル使用禁止区分変更画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS90101_アクセスレベル使用禁止区分変更画面.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898A61C1-3690-452B-AAA2-110A6508ED2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD7FA6C-64C9-4F60-9AC4-0E1E4F95BC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="368" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="368" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アクセスレベル使用禁止区分変更画面" sheetId="2" r:id="rId1"/>
     <sheet name="No.1~9" sheetId="3" r:id="rId2"/>
+    <sheet name="No.10~20" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="88">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1323,6 +1324,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1364,10 +1369,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3578,6 +3579,2415 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7AA9FA1-7717-7AF9-4618-714B1BC6B34F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20089091" y="10910455"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{590DF60D-8FAB-DB84-3A96-15841606FDFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20089091" y="727364"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ABBAFEE-7F09-F3F8-7C58-D98A7A11FD7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692727" y="10910455"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10EF65C-23DB-771E-8EA7-E143848D4D7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692727" y="727364"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>396876</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>150090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>329046</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4438D289-0ECA-45F3-9FC7-A93AA06FF4D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18407785" y="20516272"/>
+          <a:ext cx="624897" cy="334819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>242455</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12229F64-4584-4A07-9C5C-980AA99FADFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3706091" y="11707091"/>
+          <a:ext cx="9519227" cy="1541318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>660398</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>450271</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Speech Bubble: Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E91E382-DB49-45F4-B22F-5212D3B489F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1353125" y="13972309"/>
+          <a:ext cx="6024419" cy="4869874"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 44437"/>
+            <a:gd name="adj2" fmla="val 63147"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>No.10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ボタンがアクティブ状態</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.11</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>図番　　　アクセスレベル　　使用禁止区分</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　　　　現在　変更後　　    現在　変更後</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.12</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>検索結果画面で図面（複数）が選択されていた場合には、その図番（複数）が表示される</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.13</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>当該図番の図面に付与されているアクセスレベル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（現在値）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.14</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>当該図番の図面に付与されているアクセスレベル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（現在値）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.15</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アクセスレベルマスタに登録されている全てのアクセスレベル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>がメニューに表示される</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.16</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>当該図番の図面に付与されている使用禁止区分（現在値）が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の場合は〇、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の場合は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>×</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.17</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>当該図番の図面に付与されている使用禁止区分（現在値）が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の場合は〇、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の場合は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>×</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.18</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>〇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>×</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>がメニューに表示される</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.19</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ボタンがアクティブ状態</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.20</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ボタンがアクティブ状態</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>327603</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>470478</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>194829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3899413-00F1-90BB-2A8B-D5018D91BE21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562148" y="20481636"/>
+          <a:ext cx="835603" cy="321829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>396876</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>150090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>329046</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE0EFE7-1D23-432C-989D-2A45E6EEE1AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37804149" y="20516272"/>
+          <a:ext cx="624897" cy="334819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>242455</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>242453</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FD013F-869E-487B-81C8-4354617FBBD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23102455" y="11966863"/>
+          <a:ext cx="9519227" cy="1853045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>660398</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>450272</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Speech Bubble: Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9307F773-FD4F-446F-81F0-7E546CD7484D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20749489" y="13972309"/>
+          <a:ext cx="6024419" cy="4869874"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 44437"/>
+            <a:gd name="adj2" fmla="val 63147"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>No.10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ボタンがアクティブ状態</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.11</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>図番　　　アクセスレベル　　使用禁止区分</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　　　　現在　変更後　　    現在　変更後</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.12</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>検索結果画面で図面（複数）が選択されていた場合には、その図番（複数）が表示される</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.13</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>当該図番の図面に付与されているアクセスレベル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（現在値）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.14</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>当該図番の図面に付与されているアクセスレベル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（現在値）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.15</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アクセスレベルマスタに登録されている全てのアクセスレベル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>がメニューに表示される</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.16</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>当該図番の図面に付与されている使用禁止区分（現在値）が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の場合は〇、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の場合は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>×</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.17</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>当該図番の図面に付与されている使用禁止区分（現在値）が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の場合は〇、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の場合は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>×</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.18</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>〇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>×</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>がメニューに表示される</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.19</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ボタンがアクティブ状態</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.20</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ボタンがアクティブ状態</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>327603</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>470479</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>194829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB93C8C6-779C-47EF-B32C-0BE3B564490F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25958512" y="20481636"/>
+          <a:ext cx="835603" cy="321829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>121226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>207819</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B9A06C4-0353-4674-940B-23F413B9FFA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17508682" y="10304317"/>
+          <a:ext cx="1368136" cy="329047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>244761</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>100445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Speech Bubble: Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0235993C-EBFE-F40E-3747-903673D90D61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36959306" y="9798627"/>
+          <a:ext cx="465285" cy="315192"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 40715"/>
+            <a:gd name="adj2" fmla="val 101608"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>121226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>207819</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D127D777-00B2-7D77-1784-07D01DC9FC3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36922363" y="10304317"/>
+          <a:ext cx="1368136" cy="329047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>36943</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>100445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>502228</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Speech Bubble: Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D743A50-3872-7B70-665F-0E983A18D65A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18047852" y="9798627"/>
+          <a:ext cx="465285" cy="315192"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 40715"/>
+            <a:gd name="adj2" fmla="val 101608"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>押下</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3852,8 +6262,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="D8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -3875,13 +6285,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="18"/>
       <c r="N1" s="24" t="s">
         <v>81</v>
@@ -3892,10 +6302,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="17" t="s">
         <v>76</v>
       </c>
@@ -3914,10 +6324,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="5" t="s">
         <v>79</v>
       </c>
@@ -3937,13 +6347,13 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="18"/>
       <c r="N4" s="24" t="s">
         <v>84</v>
@@ -3954,13 +6364,13 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="20"/>
       <c r="N5" s="24" t="s">
         <v>85</v>
@@ -3980,14 +6390,14 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
@@ -4008,7 +6418,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="41">
+      <c r="A7" s="27">
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -4041,7 +6451,7 @@
       <c r="Q7" s="15"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="41">
+      <c r="A8" s="27">
         <v>2</v>
       </c>
       <c r="B8" s="10"/>
@@ -4066,7 +6476,7 @@
       <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:17" ht="63" x14ac:dyDescent="0.4">
-      <c r="A9" s="41">
+      <c r="A9" s="27">
         <v>3</v>
       </c>
       <c r="B9" s="10"/>
@@ -4091,7 +6501,7 @@
       <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="41">
+      <c r="A10" s="27">
         <v>4</v>
       </c>
       <c r="B10" s="10"/>
@@ -4116,7 +6526,7 @@
       <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="41">
+      <c r="A11" s="27">
         <v>5</v>
       </c>
       <c r="B11" s="10"/>
@@ -4143,7 +6553,7 @@
       <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A12" s="41">
+      <c r="A12" s="27">
         <v>6</v>
       </c>
       <c r="B12" s="10"/>
@@ -4170,7 +6580,7 @@
       <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="41">
+      <c r="A13" s="27">
         <v>7</v>
       </c>
       <c r="B13" s="10"/>
@@ -4195,7 +6605,7 @@
       <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A14" s="41">
+      <c r="A14" s="27">
         <v>8</v>
       </c>
       <c r="B14" s="10"/>
@@ -4220,7 +6630,7 @@
       <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A15" s="41">
+      <c r="A15" s="27">
         <v>9</v>
       </c>
       <c r="B15" s="10"/>
@@ -4245,7 +6655,7 @@
       <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="9">
+      <c r="A16" s="27">
         <v>10</v>
       </c>
       <c r="B16" s="10"/>
@@ -4274,7 +6684,7 @@
       <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="9">
+      <c r="A17" s="27">
         <v>11</v>
       </c>
       <c r="B17" s="10"/>
@@ -4298,8 +6708,8 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A18" s="9">
+    <row r="18" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A18" s="27">
         <v>12</v>
       </c>
       <c r="B18" s="10"/>
@@ -4325,8 +6735,8 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A19" s="9">
+    <row r="19" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A19" s="27">
         <v>13</v>
       </c>
       <c r="B19" s="10"/>
@@ -4354,8 +6764,8 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A20" s="9">
+    <row r="20" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A20" s="27">
         <v>14</v>
       </c>
       <c r="B20" s="10"/>
@@ -4379,8 +6789,8 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A21" s="9">
+    <row r="21" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A21" s="27">
         <v>15</v>
       </c>
       <c r="B21" s="10"/>
@@ -4406,8 +6816,8 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A22" s="9">
+    <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A22" s="27">
         <v>16</v>
       </c>
       <c r="B22" s="10"/>
@@ -4435,8 +6845,8 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A23" s="9">
+    <row r="23" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A23" s="27">
         <v>17</v>
       </c>
       <c r="B23" s="10"/>
@@ -4460,8 +6870,8 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A24" s="9">
+    <row r="24" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A24" s="27">
         <v>18</v>
       </c>
       <c r="B24" s="10"/>
@@ -4487,8 +6897,8 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A25" s="9">
+    <row r="25" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A25" s="27">
         <v>19</v>
       </c>
       <c r="B25" s="10"/>
@@ -4512,8 +6922,8 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26" s="9">
+    <row r="26" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A26" s="27">
         <v>20</v>
       </c>
       <c r="B26" s="10"/>
@@ -4886,6 +7296,8 @@
   <hyperlinks>
     <hyperlink ref="A7" location="'No.1~9'!A1" display="'No.1~9'!A1" xr:uid="{64B695E5-632C-426B-B0D1-0BA2E9EB3097}"/>
     <hyperlink ref="A8:A15" location="'No.1~9'!A1" display="'No.1~9'!A1" xr:uid="{7BA26A15-9D98-499E-B97E-4C768C9551DC}"/>
+    <hyperlink ref="A16" location="'No.10~20'!A1" display="'No.10~20'!A1" xr:uid="{A0C7ECDB-3727-49E5-98F3-4F964E8C461C}"/>
+    <hyperlink ref="A17:A26" location="'No.10~20'!A1" display="'No.10~20'!A1" xr:uid="{116F946A-6E61-45AE-B15F-2E75D06DABEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4897,17 +7309,42 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="AD2" s="40" t="s">
+      <c r="AD2" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E31857-FACA-4303-BC4C-4C854E45BF47}">
+  <dimension ref="B2:AD2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC91" sqref="AC91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" s="26" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4919,14 +7356,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5153,21 +7588,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF5EFF74-CBA8-4982-B5EC-B9B9C8407E86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3209FF43-2DD5-4E22-910A-D8153882A9DC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
-    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5192,9 +7626,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3209FF43-2DD5-4E22-910A-D8153882A9DC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF5EFF74-CBA8-4982-B5EC-B9B9C8407E86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS90101_アクセスレベル使用禁止区分変更画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS90101_アクセスレベル使用禁止区分変更画面.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FC95A1-413F-4A46-9A8C-042D13D9FF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6885837-4E50-4DB8-A79C-FDB354EBA13B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,23 +28,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="99">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1036,12 +1025,276 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>アクセスログ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクセスログ
+※ファイルパスは、
+「D:\Tomcat8\webapps\DRASAP\WEB-INF\classes\log4j.properties」内の
+「log4j.appender.DRFILE_A.File=D:\\Tomcat8\\DRASAP\\logs\\access.log」で定義されている</t>
+    <rPh sb="77" eb="78">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索条件の作成日に「20210101-」と入力して検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>任意の3件図面を選択し「アクセスレベル変更」ボタンクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクセスレベル・使用禁止区分の変更画面で、
+3件の図面を上から順に、
+1件目：アクセスレベル  10 → 11
+2件目：アクセスレベル  10 → 33
+3件目：使用禁止区分  〇 → ×
+として、「次へ」
+更に、「変更」をクリック</t>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ケンメ</t>
+    </rPh>
+    <rPh sb="81" eb="87">
+      <t>シヨウキンシクブン</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>サラ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">アクセスログにアクセス権を変更したことを示す以下のログが出力されていること
+[yyMMddHHmmss],[アクセス端末IPアドレス],[ユーザID],[氏名],[部署名],06,[図番1]
+[yyMMddHHmmss],[アクセス端末IPアドレス],[ユーザID],[氏名],[部署名],06,[図番2]
+[yyMMddHHmmss],[アクセス端末IPアドレス],[ユーザID],[氏名],[部署名],06,[図番3]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※仕様書上は、上記のようなログが出力されるはずだが、実際には、何も出力されていない。
+　アクセスレベル変更ログに機能を移管したのか？？？</t>
+    </r>
+    <rPh sb="11" eb="12">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ズバン</t>
+    </rPh>
+    <rPh sb="213" eb="216">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="216" eb="217">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="238" eb="240">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="243" eb="244">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="263" eb="265">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="268" eb="270">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="271" eb="273">
+      <t>イカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクセスレベル変更ログ</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクセスレベル変更ログ
+※ファイルパスは、
+「D:\Tomcat8\webapps\DRASAP\WEB-INF\classes\log4j.properties」内の
+「log4j.appender.DRFILE_C.RollingPolicy.FileNamePattern=D:\\Tomcat8\\DRASAP\\logs\\change_ACL%d{yyyyMM}.txt」で定義されている</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクセスレベル変更ログにアクセス権を変更したことを示す以下のログが図番単位に出力されていること
+[yyMMddHHmmss],[管理No.],[ユーザID],[氏名],[部署名],06,[図番1],[処置],[変更前アクセスレベル],[変更後アクセスレベル],[メッセージ]
+(例)
+240926162736,B240926001,123456,豊田　太郎,01823502501,更新,10（一般図A）,33（テスト33）,
+240926162736,B240926001,123456,豊田　太郎,01823561010,更新,10（一般図A）,10（一般図A）,</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ズバン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ショチ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="118" eb="121">
+      <t>ヘンコウゴ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクセスレベル変更ログには、使用禁止区分のログは、出力されないこと</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="14" eb="20">
+      <t>シヨウキンシクブン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1102,8 +1355,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1131,6 +1393,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,7 +1528,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1380,10 +1648,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -14913,10 +15190,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -15030,7 +15307,7 @@
       </c>
       <c r="O5" s="24" t="str">
         <f>"未実施："&amp;COUNTA(M$7:M$1000)-SUM(O1:O4)&amp;"／実施済："&amp;SUM(O1:O4)</f>
-        <v>未実施：0／実施済：32</v>
+        <v>未実施：3／実施済：32</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -16127,6 +16404,92 @@
         <v>88</v>
       </c>
       <c r="Q38" s="14"/>
+    </row>
+    <row r="39" spans="1:17" ht="141.75" x14ac:dyDescent="0.4">
+      <c r="A39" s="41">
+        <f t="shared" ref="A39:A41" si="1">ROW()-6</f>
+        <v>33</v>
+      </c>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" s="43"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N39" s="12"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="14"/>
+    </row>
+    <row r="40" spans="1:17" ht="173.25" x14ac:dyDescent="0.4">
+      <c r="A40" s="41">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N40" s="12"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="14"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A41" s="41">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="N41" s="12"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -16277,7 +16640,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F7555C-2B34-47DB-AE25-9D2C21F10FF2}">
-  <dimension ref="B2:AD87"/>
+  <dimension ref="B2:AD2"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
@@ -16291,77 +16654,6 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16371,7 +16663,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68763815-0B8A-4696-B253-AA50DEA845B8}">
-  <dimension ref="B2:AD87"/>
+  <dimension ref="B2:AD2"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
@@ -16385,77 +16677,6 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16487,14 +16708,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16721,21 +16940,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF5EFF74-CBA8-4982-B5EC-B9B9C8407E86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3209FF43-2DD5-4E22-910A-D8153882A9DC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
-    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16760,9 +16978,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3209FF43-2DD5-4E22-910A-D8153882A9DC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF5EFF74-CBA8-4982-B5EC-B9B9C8407E86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS90101_アクセスレベル使用禁止区分変更画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS90101_アクセスレベル使用禁止区分変更画面.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6885837-4E50-4DB8-A79C-FDB354EBA13B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2969F31C-C1B0-4A95-A373-78A6B96D9FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,18 +22,30 @@
     <sheet name="No.26~28" sheetId="9" r:id="rId7"/>
     <sheet name="No.29~31" sheetId="10" r:id="rId8"/>
     <sheet name="No.32" sheetId="7" r:id="rId9"/>
+    <sheet name="No.34~35" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="100">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1287,6 +1299,11 @@
     <rPh sb="25" eb="27">
       <t>シュツリョク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>04.Nov.23変更 図番をロギングするため、
+ここでのロギングは行わない</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1365,7 +1382,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1399,6 +1416,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1528,7 +1551,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1606,6 +1629,27 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1648,19 +1692,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -14926,6 +14961,1553 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{840FD6D0-CE95-A339-B13D-723151DEB47A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20089091" y="10910455"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EDE30D0-594D-981E-0BAC-F05AC159F983}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20089091" y="727364"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>209201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B685E00F-08FA-1727-79F6-F41103F1152A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692727" y="21093545"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12E7FC9-6AFE-CA80-FBDC-7D5068A55A98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692727" y="727364"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{324A6DFE-7135-6F6F-ACFC-0DD08C19CAC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692727" y="727364"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>259773</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>107370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21278F4F-D308-4C5F-AFD6-7F87127226CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5801591" y="10290461"/>
+          <a:ext cx="813953" cy="342902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>383307</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>86589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>155865</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>159327</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Speech Bubble: Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F633C45-F19E-43A1-90C0-E82F344B4B16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5925125" y="9784771"/>
+          <a:ext cx="465285" cy="315192"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 40715"/>
+            <a:gd name="adj2" fmla="val 101608"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>259773</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>107370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D61B231-3BB8-4598-A12F-731FCF07F1B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24948573" y="10108620"/>
+          <a:ext cx="807026" cy="338573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>383307</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>86589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>155865</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>159327</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Speech Bubble: Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{667BC728-81DD-43F6-B225-B052BB0C4C6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25072107" y="9611589"/>
+          <a:ext cx="458358" cy="310863"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 40715"/>
+            <a:gd name="adj2" fmla="val 101608"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>329046</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>124688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>450271</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>225136</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8494CF98-E8B2-49FB-AFCB-145935D897E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6563591" y="10307779"/>
+          <a:ext cx="813953" cy="342902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>452580</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>103907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>225137</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>176645</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Speech Bubble: Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA54788-0B50-4D55-ABB8-0EE77392CD09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6687125" y="9802089"/>
+          <a:ext cx="465285" cy="315192"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 40715"/>
+            <a:gd name="adj2" fmla="val 101608"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>124688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>467590</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>225136</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04ADA3F-26E9-429A-AEF0-794E1E2F4EA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25977273" y="10307779"/>
+          <a:ext cx="813953" cy="342902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>469898</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>103907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>242456</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>176645</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Speech Bubble: Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B7CFF3-49C2-486F-BE7E-10AFE16BA0C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26100807" y="9802089"/>
+          <a:ext cx="465285" cy="315192"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 40715"/>
+            <a:gd name="adj2" fmla="val 101608"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>300327</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>228815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E986AD1-1B03-1DE8-8334-DA2C3C6BAAC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692727" y="31276636"/>
+          <a:ext cx="11383964" cy="7744906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>51955</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>121226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>640773</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Speech Bubble: Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F47EA6E-6081-59C8-0F47-1DBEF01A7A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2822864" y="33579953"/>
+          <a:ext cx="8901545" cy="1264229"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36638"/>
+            <a:gd name="adj2" fmla="val -102606"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>No.34</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>アクセスレベル変更ログにアクセス権を変更したことを示す以下のログが図番単位に出力されていること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>[yyMMddHHmmss],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>管理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>No.],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ユーザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ID],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>氏名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>部署名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>],06,[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>図番</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>1],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>処置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>変更前アクセスレベル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>変更後アクセスレベル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>メッセージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>No.35</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アクセスレベル変更ログには、使用禁止区分のログは、出力されないこと</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>209201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFAA4408-CD49-18D4-09D2-629766AEFEEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20089091" y="21093545"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>300328</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>228815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED536F45-3B1B-F346-613C-4966D00980C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20089091" y="31276636"/>
+          <a:ext cx="11383964" cy="7744906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>225135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>675410</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421871BA-BD18-4F29-886F-EBA6E249E3CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="796636" y="32471590"/>
+          <a:ext cx="6113319" cy="450273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>225135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>675410</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F84CAB2-193C-356F-04A7-72E5E8801AE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20193000" y="32471590"/>
+          <a:ext cx="6113319" cy="450273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>536865</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>138544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>432955</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Speech Bubble: Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A09AC2F4-DEA9-E722-B5A3-845608EAA5B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22011410" y="33597271"/>
+          <a:ext cx="8901545" cy="1264229"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36638"/>
+            <a:gd name="adj2" fmla="val -102606"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>No.34</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>アクセスレベル変更ログにアクセス権を変更したことを示す以下のログが図番単位に出力されていること</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>[yyMMddHHmmss],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>管理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>No.],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ユーザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ID],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>氏名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>部署名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>],06,[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>図番</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>1],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>処置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>変更前アクセスレベル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>変更後アクセスレベル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>],[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>メッセージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>No.35</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アクセスレベル変更ログには、使用禁止区分のログは、出力されないこと</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -15192,8 +16774,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -15215,13 +16797,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="17"/>
       <c r="N1" s="23" t="s">
         <v>81</v>
@@ -15232,10 +16814,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="16" t="s">
         <v>76</v>
       </c>
@@ -15254,10 +16836,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="5" t="s">
         <v>79</v>
       </c>
@@ -15273,17 +16855,17 @@
       </c>
       <c r="O3" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="17"/>
       <c r="N4" s="23" t="s">
         <v>84</v>
@@ -15294,20 +16876,20 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="19"/>
       <c r="N5" s="23" t="s">
         <v>85</v>
       </c>
       <c r="O5" s="24" t="str">
         <f>"未実施："&amp;COUNTA(M$7:M$1000)-SUM(O1:O4)&amp;"／実施済："&amp;SUM(O1:O4)</f>
-        <v>未実施：3／実施済：32</v>
+        <v>未実施：2／実施済：33</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -15320,14 +16902,14 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -16406,57 +17988,61 @@
       <c r="Q38" s="14"/>
     </row>
     <row r="39" spans="1:17" ht="141.75" x14ac:dyDescent="0.4">
-      <c r="A39" s="41">
+      <c r="A39" s="29">
         <f t="shared" ref="A39:A41" si="1">ROW()-6</f>
         <v>33</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42" t="s">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G39" s="43" t="s">
+      <c r="G39" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="H39" s="43"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="11" t="s">
+      <c r="H39" s="31"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="N39" s="12"/>
+      <c r="N39" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="O39" s="13"/>
       <c r="P39" s="12"/>
-      <c r="Q39" s="14"/>
+      <c r="Q39" s="32" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="40" spans="1:17" ht="173.25" x14ac:dyDescent="0.4">
-      <c r="A40" s="41">
+      <c r="A40" s="33">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42" t="s">
+      <c r="B40" s="27"/>
+      <c r="C40" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D40" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
       <c r="M40" s="11" t="s">
@@ -16467,20 +18053,20 @@
       <c r="P40" s="12"/>
       <c r="Q40" s="14"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A41" s="41">
+    <row r="41" spans="1:17" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A41" s="33">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="11" t="s">
@@ -16516,9 +18102,105 @@
     <hyperlink ref="A33:A34" location="'No.26~28'!A1" display="'No.26~28'!A1" xr:uid="{E4466F59-BAA6-47E9-B04B-6F382646BDCB}"/>
     <hyperlink ref="A35" location="'No.29~31'!A1" display="'No.29~31'!A1" xr:uid="{DE619C67-8847-4D07-B03E-69E4DDE6D39D}"/>
     <hyperlink ref="A36:A37" location="'No.29~31'!A1" display="'No.29~31'!A1" xr:uid="{066C2BBC-C639-4DEE-8BD2-8259B8BA11E7}"/>
+    <hyperlink ref="A40" location="'No.34~35'!A1" display="'No.34~35'!A1" xr:uid="{07637188-BE9C-4B70-8CAF-ED5F977D6EF5}"/>
+    <hyperlink ref="A41" location="'No.34~35'!A1" display="'No.34~35'!A1" xr:uid="{5D2BF8BD-18BA-4D4E-A522-F784F07A4328}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DFECC0-84F3-45CD-8BBB-9E8FF1044F99}">
+  <dimension ref="B2:AD87"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B2" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
